--- a/Protocol.xlsx
+++ b/Protocol.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BAD2E0-A58E-4B3A-8365-115D4B06EF51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3334D1C-48FE-4ABB-A4DB-910FE16445AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="29">
   <si>
     <t>0x11</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>USART1 send write command</t>
+  </si>
+  <si>
+    <t>dec</t>
   </si>
 </sst>
 </file>
@@ -217,15 +220,15 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -506,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:K19"/>
+  <dimension ref="A4:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,10 +520,11 @@
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" customWidth="1"/>
     <col min="3" max="3" width="31.42578125" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -530,89 +534,98 @@
       <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
       <c r="G8" t="s">
         <v>11</v>
       </c>
@@ -628,9 +641,12 @@
       <c r="K8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="L8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
@@ -639,30 +655,33 @@
       <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
       <c r="G11" t="s">
         <v>11</v>
       </c>
@@ -678,44 +697,47 @@
       <c r="K11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="E19" s="6"/>
+      <c r="L11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="F19" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="G4:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
